--- a/レアケース/タイムライン.xlsx
+++ b/レアケース/タイムライン.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b39814ffe3333ad7/ドキュメント/個人文書/文章/IdeaMemo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murab\OneDrive\ドキュメント\個人文書\文章\IdeaMemo\レアケース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{8C9A6C97-C972-4AEE-AA7C-F6F40E7BE87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2735FE61-C67E-455A-9098-50C0B517BA21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F447FF5-C99C-49D9-AA56-013C0871B77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7AC75197-DA16-44C8-A304-4A00A47DB452}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="483">
   <si>
     <t>誕生</t>
     <rPh sb="0" eb="2">
@@ -434,28 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>司法修習（1年）　工務店の社長の支援で学費生活費は何とかなる</t>
-    <rPh sb="9" eb="12">
-      <t>コウムテン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャチョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガクヒ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>セイカツヒ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目</t>
   </si>
   <si>
@@ -1297,6 +1275,978 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒョウメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>司法修習（1年）司法修習生考試合格　特別職国家公務員</t>
+    <rPh sb="15" eb="17">
+      <t>ゴウカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コッカ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>コウムイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>結論から言うと——</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>司法修習同期同士の法廷バトルは、現実に“かなりの数”起きている。</t>
+    </r>
+  </si>
+  <si>
+    <t>しかも、想像以上に“珍しくない”。</t>
+  </si>
+  <si>
+    <t>理由は構造的に極めて単純で、むしろ「同期対決を避ける方が難しい」。</t>
+  </si>
+  <si>
+    <t>以下、なぜそうなるのかをロジカルに整理する。</t>
+  </si>
+  <si>
+    <t>◆なぜ同期バトルが頻発するのか</t>
+  </si>
+  <si>
+    <t>◆１．司法修習はほぼ全法曹の入口であり、人数が多い</t>
+  </si>
+  <si>
+    <t>例年1500人規模。</t>
+  </si>
+  <si>
+    <t>三職（裁判官・検察官・弁護士）に“ほぼ全員”が散っていく。</t>
+  </si>
+  <si>
+    <t>→ 全国各地でその世代の法曹が同時多発的に活動を始める。</t>
+  </si>
+  <si>
+    <t>◆２．新人裁判官・新人検事・新人弁護士は“同じ層”に集中配置される</t>
+  </si>
+  <si>
+    <t>若手判事補 → 地方裁判所の“地味だが件数多い部”に配属</t>
+  </si>
+  <si>
+    <t>若手検事 → 地検の一般事件の最前線</t>
+  </si>
+  <si>
+    <t>若手弁護士 → 刑事事件で国選を多数経験</t>
+  </si>
+  <si>
+    <r>
+      <t>つまり、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新人同士が“現場の一線”でぶつかる設計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>になっている。</t>
+    </r>
+  </si>
+  <si>
+    <t>◆３．地裁の刑事公判は “同期三つ巴” が最も起きやすい</t>
+  </si>
+  <si>
+    <t>典型例：</t>
+  </si>
+  <si>
+    <t>裁判官：修習〇期のA</t>
+  </si>
+  <si>
+    <t>検察官：同じ修習〇期のB</t>
+  </si>
+  <si>
+    <t>弁護人：同期のC（国選／当番弁護）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">すなわち </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「修習同期トライアングル」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が普通に誕生する。</t>
+    </r>
+  </si>
+  <si>
+    <t>公判廷で、</t>
+  </si>
+  <si>
+    <t>検察が立証</t>
+  </si>
+  <si>
+    <t>弁護が反証</t>
+  </si>
+  <si>
+    <t>裁判官が裁断</t>
+  </si>
+  <si>
+    <t>という構図になるので、完全に“三者対決”。</t>
+  </si>
+  <si>
+    <t>◆４．修習中に一緒に勉強した相手の「癖」を知っている</t>
+  </si>
+  <si>
+    <t>リアルならではの面白さがある。</t>
+  </si>
+  <si>
+    <t>A（裁判官）「Bは証拠法に強い。ここを突かれると検面が揺るがない」</t>
+  </si>
+  <si>
+    <t>B（検事）「Cは尋問力が高い。証人尋問で攻めてくるはずだ」</t>
+  </si>
+  <si>
+    <t>C（弁護人）「Aは細かい論点に敏感。判決理由で絶対そこを拾う」</t>
+  </si>
+  <si>
+    <t>お互いの長所・短所・思考パターンを知っているから、</t>
+  </si>
+  <si>
+    <t>“読み合い”が高度で、やたら面白い。</t>
+  </si>
+  <si>
+    <t>これは現実でもよく聞く話。</t>
+  </si>
+  <si>
+    <t>◆５．若手は持ち場が狭いので、必然的に同じフロアを駆け回る</t>
+  </si>
+  <si>
+    <t>地方裁判所・地方検察庁・弁護士会という</t>
+  </si>
+  <si>
+    <t>“狭い三点セット”のなかで頻繁に顔を合わせる。</t>
+  </si>
+  <si>
+    <t>夜、控訴趣意書を書いていたら、隣の机に検事がいた</t>
+  </si>
+  <si>
+    <t>朝の国選呼び出しで法廷前に同期弁護士がいた</t>
+  </si>
+  <si>
+    <t>昼休みに裁判所の食堂でばったり遇う</t>
+  </si>
+  <si>
+    <t>裁判所の図書室で互いに愚痴る</t>
+  </si>
+  <si>
+    <t>裁判官・検察官・弁護士の“三角関係の村社会”が自然にできあがる。</t>
+  </si>
+  <si>
+    <t>◆結果：同期バトルは“日常”である</t>
+  </si>
+  <si>
+    <t>特に刑事事件は、</t>
+  </si>
+  <si>
+    <t>重罪も</t>
+  </si>
+  <si>
+    <t>交通事件も</t>
+  </si>
+  <si>
+    <t>薬物も</t>
+  </si>
+  <si>
+    <t>傷害も</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">すべて </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新人の格好の修行場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> になるため、同期遭遇率は跳ね上がる。</t>
+    </r>
+  </si>
+  <si>
+    <t>民事事件でもあり得るが、刑事が圧倒的。</t>
+  </si>
+  <si>
+    <t>◆作品ネタにも直結するリアル設定</t>
+  </si>
+  <si>
+    <t>もしフィクションに使う場合、こんな“同期ならではの緊張”が使える：</t>
+  </si>
+  <si>
+    <t>同期の検事が突然強気に攻めてきて、弁護士側が「お前、昔は証拠法苦手だったろ」と心の中で思う</t>
+  </si>
+  <si>
+    <t>裁判官が判決で同期の弁護士に「これ、修習のときにお前が言ってた論点そのままじゃないか」と突っ込みたくなる</t>
+  </si>
+  <si>
+    <t>検察庁の待合室で、同期3人が事件について軽く皮肉の応酬</t>
+  </si>
+  <si>
+    <t>昔の恋人（修習同期）が相手方の弁護人／検事として出てきて修羅場に</t>
+  </si>
+  <si>
+    <t>“同期の好敵手”という構図はリアルでも非常に多く、</t>
+  </si>
+  <si>
+    <t>物語に持ち込むと美味しい。</t>
+  </si>
+  <si>
+    <t>◆もし必要なら</t>
+  </si>
+  <si>
+    <t>修習期別の雰囲気の違い</t>
+  </si>
+  <si>
+    <t>地裁配属のリアル（地方・都市での同期遭遇率の差）</t>
+  </si>
+  <si>
+    <t>実在の裁判官・検事・弁護士が語る“同期バトルあるある”まとめ</t>
+  </si>
+  <si>
+    <t>“三者同窓会”のリアル（けっこうある）</t>
+  </si>
+  <si>
+    <t>など、もっと深く実務寄りにも書ける。</t>
+  </si>
+  <si>
+    <t>もっと攻めた話が聞きたいなら言ってください。</t>
+  </si>
+  <si>
+    <t>了解。核心だけ端的に押さえつつ、余計な粉飾はせず、しかし流れは俯瞰しやすくまとめる。</t>
+  </si>
+  <si>
+    <t>◆司法修習生から始まる３職のキャリアパス</t>
+  </si>
+  <si>
+    <t>（判事／検事／弁護士）</t>
+  </si>
+  <si>
+    <t>司法試験に受かった瞬間に「キャリアが始まる」のではなく、</t>
+  </si>
+  <si>
+    <t>司法修習（1年）を正式に修了→二回試験に合格</t>
+  </si>
+  <si>
+    <t>ここまで来てようやく“プロの入口”に立てる。</t>
+  </si>
+  <si>
+    <t>◆ステップ0：司法修習生（身分：特別職国家公務員）</t>
+  </si>
+  <si>
+    <r>
+      <t>身分：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特別職国家公務員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（給与＝給費制→今は貸与制）</t>
+    </r>
+  </si>
+  <si>
+    <t>期間：原則1年</t>
+  </si>
+  <si>
+    <t>内容：民事・刑事・検察・弁護の各実務を回る。</t>
+  </si>
+  <si>
+    <t>終盤に**二回試験（司法修習生考試）**を受ける。</t>
+  </si>
+  <si>
+    <t>　二回試験は「実務家としての最低限の資格」を判定する関門。</t>
+  </si>
+  <si>
+    <t>合格すると“法曹三者”のスタート地点に立てる。</t>
+  </si>
+  <si>
+    <t>◆ステップ1：進路選択</t>
+  </si>
+  <si>
+    <t>二回試験に合格した後、以下の道を選ぶ。</t>
+  </si>
+  <si>
+    <t>ここから身分の扱いが分岐する。</t>
+  </si>
+  <si>
+    <t>◆１．裁判官（判事）への道</t>
+  </si>
+  <si>
+    <t>●身分・肩書</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">はじめは </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>判事補（任期付きの国家公務員）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">数年間（通常10年程度の実務経験）で → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>判事に昇任</t>
+    </r>
+  </si>
+  <si>
+    <t>●裁判官になる方法</t>
+  </si>
+  <si>
+    <t>二回試験合格後に、最高裁判所が採用する形。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">採用されると </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>判事補</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> として任官（任命）される。</t>
+    </r>
+  </si>
+  <si>
+    <t>●昇任要件</t>
+  </si>
+  <si>
+    <t>判事補は“独任では重大事件を単独処理できない”扱い。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10年の法曹経験＋適格審査</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で、裁判官会議により昇任が決まる。</t>
+    </r>
+  </si>
+  <si>
+    <t>●キャリアの流れ（典型）</t>
+  </si>
+  <si>
+    <t>1. 判事補（地方裁判所→簡裁兼務など）</t>
+  </si>
+  <si>
+    <t>2. 10年前後で判事</t>
+  </si>
+  <si>
+    <t>3. 本庁部総括判事など</t>
+  </si>
+  <si>
+    <t>4. 高裁判事</t>
+  </si>
+  <si>
+    <t>5. 高裁長官や最高裁判事（ここは政治任命）も“極めて狭き門”</t>
+  </si>
+  <si>
+    <t>●特徴</t>
+  </si>
+  <si>
+    <t>組織の中でコツコツ積み上げる“行政官型”キャリア。</t>
+  </si>
+  <si>
+    <t>転職はほぼ無い。安定と重圧が同居する。</t>
+  </si>
+  <si>
+    <t>◆２．検察官（検事）への道</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">初期は </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>検事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（任期なしの国家公務員）</t>
+    </r>
+  </si>
+  <si>
+    <t>組織は法務省・検察庁。</t>
+  </si>
+  <si>
+    <t>●キャリアの流れ</t>
+  </si>
+  <si>
+    <t>1. 地検の平検事</t>
+  </si>
+  <si>
+    <t>2. 地検の主任検事・副部長</t>
+  </si>
+  <si>
+    <t>3. 地検の部長級</t>
+  </si>
+  <si>
+    <t>4. 高検検事</t>
+  </si>
+  <si>
+    <t>5. 検事正（地検トップ）</t>
+  </si>
+  <si>
+    <t>6. 高検検事長（全国に8名の“頂点”）</t>
+  </si>
+  <si>
+    <t>7. 検事総長（1名のみ）</t>
+  </si>
+  <si>
+    <t>※検察は軍隊のような階層構造で、人事異動が頻繁。</t>
+  </si>
+  <si>
+    <r>
+      <t>官僚色が強い職種</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。地域転勤も多い。</t>
+    </r>
+  </si>
+  <si>
+    <t>取り調べ・立証・公判運営がメインで、現場の裁量は大きいが責任も重い。</t>
+  </si>
+  <si>
+    <t>◆３．弁護士への道</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">身分は </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自由業・個人事業主または法律事務所所属の社会人</t>
+    </r>
+  </si>
+  <si>
+    <t>公務員ではない。</t>
+  </si>
+  <si>
+    <t>●登録手続き</t>
+  </si>
+  <si>
+    <r>
+      <t>二回試験合格 → 各地の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弁護士会に入会申請</t>
+    </r>
+  </si>
+  <si>
+    <t>日本弁護士連合会（日弁連）が最終承認</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">登録すると </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弁護士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（職務独占資格）</t>
+    </r>
+  </si>
+  <si>
+    <t>一般事務所に所属 → 独立 → 企業法務系・刑事弁護系など専門特化</t>
+  </si>
+  <si>
+    <t>インハウスロイヤー（企業内弁護士）に移る者も多い</t>
+  </si>
+  <si>
+    <t>任期付で行政庁・自治体・国際機関に出向するキャリアもあり</t>
+  </si>
+  <si>
+    <t>三職の中で最も自由。</t>
+  </si>
+  <si>
+    <t>収入も仕事内容も“完全に自分次第”。</t>
+  </si>
+  <si>
+    <t>ただし最も不安定で、修習同期でも所得差がケタ違いになる。</t>
+  </si>
+  <si>
+    <t>◆補足：二回試験後の“身分の変化”まとめ</t>
+  </si>
+  <si>
+    <t>段階</t>
+  </si>
+  <si>
+    <t>身分</t>
+  </si>
+  <si>
+    <t>司法修習生</t>
+  </si>
+  <si>
+    <t>特別職国家公務員</t>
+  </si>
+  <si>
+    <t>判事補</t>
+  </si>
+  <si>
+    <t>一般職国家公務員（裁判所職員の一種）</t>
+  </si>
+  <si>
+    <t>検事</t>
+  </si>
+  <si>
+    <t>国家公務員（法務省）</t>
+  </si>
+  <si>
+    <t>弁護士</t>
+  </si>
+  <si>
+    <t>公務員ではない（法律上の自由業）</t>
+  </si>
+  <si>
+    <t>◆さらに深掘りポイント（要望あれば展開します）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">裁判官・検事は </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任官試験は特に存在しない（採用審査と昇任審査）</t>
+    </r>
+  </si>
+  <si>
+    <t>判事補→判事の“10年ルール”の成り立ち</t>
+  </si>
+  <si>
+    <t>検察庁のキャリアパスの地域差・出世パターン</t>
+  </si>
+  <si>
+    <t>弁護士会の登録費・維持費（これがなかなか重い）</t>
+  </si>
+  <si>
+    <t>法曹三者の給与事情と昇給ロジック</t>
+  </si>
+  <si>
+    <t>三者の“向き不向き”性格診断</t>
+  </si>
+  <si>
+    <t>フィクションで使いやすい“職階のリアリティ設定”</t>
+  </si>
+  <si>
+    <t>出来事</t>
+    <rPh sb="0" eb="3">
+      <t>デキゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内装工事現場殺人事件</t>
+    <rPh sb="0" eb="10">
+      <t>ナイソウコウジゲンバサツジンジケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁判員候補1回目</t>
+    <rPh sb="0" eb="5">
+      <t>サイバンインコウホ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別荘地毒殺事件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就職</t>
+    <rPh sb="0" eb="2">
+      <t>シュウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月から就職別地域に引っ越し
+裁判員候補2回目</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウショク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ベツチイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁判員になる１</t>
+    <rPh sb="0" eb="3">
+      <t>サイバンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁判員になる２</t>
+    <rPh sb="0" eb="3">
+      <t>サイバンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇バイト始末人事件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番外地アウトロー襲撃事件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒幕との対決</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月から転勤別地域に引っ越し
+裁判員候補３回目</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ベツチイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁判員になる３</t>
+    <rPh sb="0" eb="3">
+      <t>サイバンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月から出向別地域に引っ越し
+裁判員候補４回目</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁判員になる４</t>
+    <rPh sb="0" eb="3">
+      <t>サイバンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認として出廷</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判決</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗躍</t>
+    <rPh sb="0" eb="2">
+      <t>アンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1審無罪、検察控訴、最後の決戦</t>
+    <rPh sb="2" eb="4">
+      <t>ムザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウソ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巻き添えで登場</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゾ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗躍におわせ</t>
+    <rPh sb="0" eb="2">
+      <t>アンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇バイトの被害者として登場</t>
+    <rPh sb="0" eb="1">
+      <t>ヤミ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒガイシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逮捕</t>
+    <rPh sb="0" eb="2">
+      <t>タイホ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1309,7 +2259,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;"/>
     <numFmt numFmtId="177" formatCode="[$]ggge&quot;年&quot;" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,6 +2293,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1366,7 +2334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,6 +2356,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1403,10 +2383,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1726,37 +2702,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CB3004-6BF9-418F-99E2-96D4032DC4AE}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="87.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="87.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
         <v>306</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>29221</v>
       </c>
@@ -1764,8 +2744,9 @@
         <v>29221</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>29587</v>
       </c>
@@ -1773,8 +2754,9 @@
         <v>29587</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>29952</v>
       </c>
@@ -1782,8 +2764,9 @@
         <v>29952</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>30317</v>
       </c>
@@ -1791,8 +2774,9 @@
         <v>30317</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>30682</v>
       </c>
@@ -1800,8 +2784,9 @@
         <v>30682</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>31048</v>
       </c>
@@ -1809,8 +2794,9 @@
         <v>31048</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>31413</v>
       </c>
@@ -1818,8 +2804,9 @@
         <v>31413</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>31778</v>
       </c>
@@ -1827,8 +2814,9 @@
         <v>31778</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>32143</v>
       </c>
@@ -1836,8 +2824,9 @@
         <v>32143</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>32509</v>
       </c>
@@ -1845,8 +2834,9 @@
         <v>32509</v>
       </c>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>32516</v>
       </c>
@@ -1854,8 +2844,9 @@
         <v>32516</v>
       </c>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>32874</v>
       </c>
@@ -1863,8 +2854,9 @@
         <v>32874</v>
       </c>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>33239</v>
       </c>
@@ -1872,8 +2864,9 @@
         <v>33239</v>
       </c>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>33604</v>
       </c>
@@ -1881,8 +2874,9 @@
         <v>33604</v>
       </c>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>33970</v>
       </c>
@@ -1890,8 +2884,9 @@
         <v>33970</v>
       </c>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>34335</v>
       </c>
@@ -1899,8 +2894,9 @@
         <v>34335</v>
       </c>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>34700</v>
       </c>
@@ -1911,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>35065</v>
       </c>
@@ -1922,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>35431</v>
       </c>
@@ -1933,7 +2929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>35796</v>
       </c>
@@ -1944,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>36161</v>
       </c>
@@ -1955,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>36526</v>
       </c>
@@ -1966,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>36892</v>
       </c>
@@ -1977,7 +2973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>37257</v>
       </c>
@@ -1987,11 +2983,11 @@
       <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>37622</v>
       </c>
@@ -2001,11 +2997,11 @@
       <c r="C26">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>37987</v>
       </c>
@@ -2015,11 +3011,11 @@
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>38353</v>
       </c>
@@ -2029,14 +3025,14 @@
       <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>97</v>
       </c>
-      <c r="G28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>38718</v>
       </c>
@@ -2046,14 +3042,14 @@
       <c r="C29">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>98</v>
       </c>
-      <c r="G29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>39083</v>
       </c>
@@ -2063,14 +3059,14 @@
       <c r="C30">
         <v>12</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>99</v>
       </c>
-      <c r="G30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>39448</v>
       </c>
@@ -2080,17 +3076,17 @@
       <c r="C31">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>100</v>
-      </c>
-      <c r="F31" t="s">
-        <v>309</v>
       </c>
       <c r="G31" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>39814</v>
       </c>
@@ -2100,17 +3096,17 @@
       <c r="C32">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>102</v>
       </c>
-      <c r="F32" t="s">
-        <v>140</v>
-      </c>
       <c r="G32" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+      <c r="H32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>40179</v>
       </c>
@@ -2120,17 +3116,17 @@
       <c r="C33">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>103</v>
       </c>
-      <c r="F33" t="s">
-        <v>141</v>
-      </c>
       <c r="G33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+      <c r="H33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>40544</v>
       </c>
@@ -2140,14 +3136,14 @@
       <c r="C34">
         <v>16</v>
       </c>
-      <c r="D34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>40909</v>
       </c>
@@ -2157,14 +3153,14 @@
       <c r="C35">
         <v>17</v>
       </c>
-      <c r="D35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>41275</v>
       </c>
@@ -2174,14 +3170,14 @@
       <c r="C36">
         <v>18</v>
       </c>
-      <c r="D36" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>41640</v>
       </c>
@@ -2191,14 +3187,17 @@
       <c r="C37">
         <v>19</v>
       </c>
-      <c r="D37" t="s">
-        <v>147</v>
+      <c r="E37" t="s">
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+      <c r="G37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>42005</v>
       </c>
@@ -2209,10 +3208,19 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>466</v>
+      </c>
+      <c r="H38" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>42370</v>
       </c>
@@ -2222,11 +3230,11 @@
       <c r="C39">
         <v>21</v>
       </c>
-      <c r="D39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>42736</v>
       </c>
@@ -2236,11 +3244,11 @@
       <c r="C40">
         <v>22</v>
       </c>
-      <c r="D40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43101</v>
       </c>
@@ -2250,8 +3258,14 @@
       <c r="C41">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
+        <v>464</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43466</v>
       </c>
@@ -2261,8 +3275,17 @@
       <c r="C42">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>463</v>
+      </c>
+      <c r="F42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H42" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43466</v>
       </c>
@@ -2273,7 +3296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43831</v>
       </c>
@@ -2283,8 +3306,11 @@
       <c r="C44">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F44" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44197</v>
       </c>
@@ -2294,8 +3320,17 @@
       <c r="C45">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D45" t="s">
+        <v>468</v>
+      </c>
+      <c r="F45" t="s">
+        <v>472</v>
+      </c>
+      <c r="H45" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44562</v>
       </c>
@@ -2306,7 +3341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44927</v>
       </c>
@@ -2316,8 +3351,11 @@
       <c r="C47">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F47" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>45292</v>
       </c>
@@ -2327,11 +3365,20 @@
       <c r="C48">
         <v>29</v>
       </c>
+      <c r="D48" t="s">
+        <v>469</v>
+      </c>
       <c r="F48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>474</v>
+      </c>
+      <c r="G48" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>45658</v>
       </c>
@@ -2342,7 +3389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>46023</v>
       </c>
@@ -2352,8 +3399,11 @@
       <c r="C50">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="H50" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>46388</v>
       </c>
@@ -2363,8 +3413,20 @@
       <c r="C51">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>470</v>
+      </c>
+      <c r="F51" t="s">
+        <v>475</v>
+      </c>
+      <c r="G51" t="s">
+        <v>476</v>
+      </c>
+      <c r="H51" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>46753</v>
       </c>
@@ -2375,7 +3437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>47119</v>
       </c>
@@ -2386,7 +3448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>47484</v>
       </c>
@@ -2397,7 +3459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>47849</v>
       </c>
@@ -2408,7 +3470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>48214</v>
       </c>
@@ -2419,7 +3481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>48580</v>
       </c>
@@ -2430,7 +3492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>48945</v>
       </c>
@@ -2441,7 +3503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>49310</v>
       </c>
@@ -2490,16 +3552,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s">
         <v>301</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
         <v>302</v>
-      </c>
-      <c r="C2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2513,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3038,7 +4100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8B3AF7-972A-4D27-A0FB-114A4B47FC13}">
   <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
@@ -3052,981 +4114,981 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
         <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
         <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
         <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
         <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
         <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" t="s">
         <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
         <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
         <v>131</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
         <v>133</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
         <v>135</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
         <v>157</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>158</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>159</v>
-      </c>
-      <c r="D26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
         <v>161</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>162</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>163</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" t="s">
         <v>165</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>166</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" t="s">
         <v>169</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>170</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>171</v>
-      </c>
-      <c r="D29" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
         <v>173</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>174</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>175</v>
-      </c>
-      <c r="D30" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" t="s">
         <v>178</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>179</v>
-      </c>
-      <c r="C33" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
         <v>181</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>182</v>
-      </c>
-      <c r="C34" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
         <v>184</v>
       </c>
-      <c r="B35" t="s">
-        <v>185</v>
-      </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" t="s">
         <v>186</v>
       </c>
-      <c r="B36" t="s">
-        <v>187</v>
-      </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s">
         <v>188</v>
       </c>
-      <c r="B37" t="s">
-        <v>189</v>
-      </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
         <v>190</v>
       </c>
-      <c r="B38" t="s">
-        <v>191</v>
-      </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" t="s">
         <v>192</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>193</v>
-      </c>
-      <c r="C39" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
         <v>195</v>
       </c>
-      <c r="B40" t="s">
-        <v>196</v>
-      </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
         <v>197</v>
-      </c>
-      <c r="B41" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
         <v>178</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>179</v>
-      </c>
-      <c r="C44" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" t="s">
         <v>200</v>
-      </c>
-      <c r="C45" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" t="s">
         <v>206</v>
-      </c>
-      <c r="C50" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" t="s">
         <v>178</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>179</v>
-      </c>
-      <c r="C55" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" t="s">
         <v>216</v>
-      </c>
-      <c r="C61" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" t="s">
         <v>178</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>179</v>
-      </c>
-      <c r="C66" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
         <v>221</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>222</v>
-      </c>
-      <c r="C67" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" t="s">
         <v>224</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>225</v>
-      </c>
-      <c r="C68" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" t="s">
         <v>241</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>242</v>
-      </c>
-      <c r="C88" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s">
         <v>244</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>245</v>
-      </c>
-      <c r="C89" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" t="s">
         <v>247</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>248</v>
-      </c>
-      <c r="C90" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" t="s">
         <v>250</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>251</v>
-      </c>
-      <c r="C91" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4037,12 +5099,977 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF6A82F-5D4E-4592-A91E-3D8F9891D7C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A39" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A45" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A51" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A57" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A69" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A77" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A79" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A85" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" s="6"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A103" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="6"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A111" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A113" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A119" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" s="6"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" s="6"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" s="6"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A127" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" s="6"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" s="6"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" s="6"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A135" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" s="6"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" s="6"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" s="6"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="39" x14ac:dyDescent="0.45">
+      <c r="A145" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+      <c r="A148" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="90" x14ac:dyDescent="0.45">
+      <c r="A149" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="54" x14ac:dyDescent="0.45">
+      <c r="A150" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="90" x14ac:dyDescent="0.45">
+      <c r="A151" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="39" x14ac:dyDescent="0.45">
+      <c r="A154" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="6"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="6"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="6"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" s="6"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" s="6"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" s="6"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" s="6"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A179" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A181" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A190" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" s="6"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" s="6"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" s="6"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A202" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205" s="6"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207" s="6"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A209" s="6"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A215" s="6"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A216" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217" s="6"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219" s="6"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A225" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" s="6"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" s="6"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232" s="6"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A242" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" s="6"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248" s="6"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250" s="6"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252" s="6"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A259" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262" s="6"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264" s="6"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266" s="6"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268" s="6"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A276" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279" s="6"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281" s="6"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283" s="6"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285" s="6"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="39" x14ac:dyDescent="0.45">
+      <c r="A293" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A294" s="6"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A295" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A296" s="6"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A297" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A298" s="6"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A299" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A300" s="6"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A301" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/レアケース/タイムライン.xlsx
+++ b/レアケース/タイムライン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murab\OneDrive\ドキュメント\個人文書\文章\IdeaMemo\レアケース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F447FF5-C99C-49D9-AA56-013C0871B77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA52D499-3F22-40A0-8E75-D9BDDD97F5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7AC75197-DA16-44C8-A304-4A00A47DB452}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="485">
   <si>
     <t>誕生</t>
     <rPh sb="0" eb="2">
@@ -1174,13 +1174,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ガクネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黒幕</t>
-    <rPh sb="0" eb="2">
-      <t>クロマク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2065,26 +2058,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4月から就職別地域に引っ越し
-裁判員候補2回目</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウショク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ベツチイキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>裁判員になる１</t>
     <rPh sb="0" eb="3">
       <t>サイバンイン</t>
@@ -2247,6 +2220,59 @@
     <t>逮捕</t>
     <rPh sb="0" eb="2">
       <t>タイホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平成7年10月3日 誕生</t>
+    <rPh sb="10" eb="12">
+      <t>タンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平成7年4月19日　誕生</t>
+    <rPh sb="10" eb="12">
+      <t>タンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月から就職して別地域に引っ越し
+裁判員候補2回目</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウショク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ベツチイキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒幕（間久部九朗）</t>
+    <rPh sb="0" eb="2">
+      <t>クロマク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハザマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クロウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2334,7 +2360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2366,6 +2392,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2705,8 +2734,8 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2714,14 +2743,14 @@
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="87.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E1" t="s">
         <v>305</v>
@@ -2733,7 +2762,7 @@
         <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2906,6 +2935,12 @@
       <c r="C18" t="s">
         <v>0</v>
       </c>
+      <c r="F18" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G18" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -3029,7 +3064,7 @@
         <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -3046,7 +3081,7 @@
         <v>98</v>
       </c>
       <c r="H29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -3063,7 +3098,7 @@
         <v>99</v>
       </c>
       <c r="H30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -3080,10 +3115,10 @@
         <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -3103,7 +3138,7 @@
         <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -3123,7 +3158,7 @@
         <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -3174,7 +3209,7 @@
         <v>145</v>
       </c>
       <c r="G36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -3191,7 +3226,7 @@
         <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G37" t="s">
         <v>141</v>
@@ -3208,16 +3243,16 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E38" t="s">
         <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -3259,10 +3294,10 @@
         <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -3276,13 +3311,13 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F42" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H42" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -3307,7 +3342,7 @@
         <v>25</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -3321,13 +3356,13 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F45" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H45" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -3352,7 +3387,7 @@
         <v>28</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -3366,16 +3401,16 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G48" t="s">
         <v>142</v>
       </c>
       <c r="H48" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -3400,7 +3435,7 @@
         <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -3414,16 +3449,16 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F51" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G51" t="s">
+        <v>474</v>
+      </c>
+      <c r="H51" t="s">
         <v>476</v>
-      </c>
-      <c r="H51" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -5109,37 +5144,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
@@ -5147,7 +5182,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
@@ -5155,7 +5190,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
@@ -5163,7 +5198,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
@@ -5171,42 +5206,42 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
@@ -5214,7 +5249,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
@@ -5222,12 +5257,12 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
@@ -5235,7 +5270,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
@@ -5243,12 +5278,12 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
@@ -5256,7 +5291,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
@@ -5264,12 +5299,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
@@ -5277,7 +5312,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
@@ -5285,7 +5320,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
@@ -5293,7 +5328,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
@@ -5301,7 +5336,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
@@ -5309,12 +5344,12 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.45">
@@ -5322,7 +5357,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.45">
@@ -5330,17 +5365,17 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
@@ -5348,7 +5383,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
@@ -5356,12 +5391,12 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
@@ -5369,7 +5404,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
@@ -5377,7 +5412,7 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
@@ -5385,7 +5420,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
@@ -5393,7 +5428,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.45">
@@ -5401,7 +5436,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
@@ -5409,7 +5444,7 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
@@ -5417,17 +5452,17 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A103" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
@@ -5435,7 +5470,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
@@ -5443,17 +5478,17 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A111" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A113" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
@@ -5461,7 +5496,7 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
@@ -5469,12 +5504,12 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
@@ -5482,7 +5517,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
@@ -5490,7 +5525,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
@@ -5498,12 +5533,12 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.45">
@@ -5511,7 +5546,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
@@ -5519,7 +5554,7 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
@@ -5527,12 +5562,12 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
@@ -5540,7 +5575,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
@@ -5548,7 +5583,7 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.45">
@@ -5556,57 +5591,57 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="39" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="36" x14ac:dyDescent="0.45">
       <c r="A148" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="90" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="54" x14ac:dyDescent="0.45">
       <c r="A150" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="90" x14ac:dyDescent="0.45">
       <c r="A151" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="39" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
@@ -5614,7 +5649,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -5622,7 +5657,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -5630,7 +5665,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
@@ -5638,7 +5673,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
@@ -5646,7 +5681,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
@@ -5654,7 +5689,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
@@ -5662,57 +5697,57 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A179" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A190" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
@@ -5720,7 +5755,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.45">
@@ -5728,7 +5763,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.45">
@@ -5736,22 +5771,22 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A202" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.45">
@@ -5759,7 +5794,7 @@
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.45">
@@ -5767,7 +5802,7 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.45">
@@ -5775,17 +5810,17 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.45">
@@ -5793,7 +5828,7 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.45">
@@ -5801,7 +5836,7 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.45">
@@ -5809,22 +5844,22 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A225" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.45">
@@ -5832,7 +5867,7 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.45">
@@ -5840,7 +5875,7 @@
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.45">
@@ -5848,37 +5883,37 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A242" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.45">
@@ -5886,7 +5921,7 @@
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.45">
@@ -5894,7 +5929,7 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.45">
@@ -5902,7 +5937,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.45">
@@ -5910,22 +5945,22 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A259" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.45">
@@ -5933,7 +5968,7 @@
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.45">
@@ -5941,7 +5976,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.45">
@@ -5949,7 +5984,7 @@
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.45">
@@ -5957,27 +5992,27 @@
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A276" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.45">
@@ -5985,7 +6020,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.45">
@@ -5993,7 +6028,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.45">
@@ -6001,7 +6036,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.45">
@@ -6009,22 +6044,22 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="39" x14ac:dyDescent="0.45">
       <c r="A293" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.45">
@@ -6032,7 +6067,7 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.45">
@@ -6040,7 +6075,7 @@
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.45">
@@ -6048,7 +6083,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.45">
@@ -6056,17 +6091,17 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
